--- a/RECRepurchase Functionality.xlsx
+++ b/RECRepurchase Functionality.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="274">
   <si>
     <t>Created By:-</t>
   </si>
@@ -387,9 +387,6 @@
     <t>Current odometer Reading and REC Start KM reflecting the same reading</t>
   </si>
   <si>
-    <t xml:space="preserve">NO PMS should be select from last PMS done Down </t>
-  </si>
-  <si>
     <t>Vin number-MEEBBA006G3347401</t>
   </si>
   <si>
@@ -524,13 +521,7 @@
     <t>Sales manager should accept or reject the amendment request.</t>
   </si>
   <si>
-    <t>To verify if dealer is able to Renew the policy when odometer is expired</t>
-  </si>
-  <si>
     <t>Dealer is loggend into the sys</t>
-  </si>
-  <si>
-    <t>To verify if dealer is able to renew the policy when the PMS done has been already expired</t>
   </si>
   <si>
     <t>Repurchage_TC1</t>
@@ -1469,21 +1460,12 @@
     <t>BUG_ID1</t>
   </si>
   <si>
-    <t>!3389</t>
-  </si>
-  <si>
     <t>28.12.2020</t>
   </si>
   <si>
     <t>New</t>
   </si>
   <si>
-    <t>Mercedes Benz</t>
-  </si>
-  <si>
-    <t>Lead Dev: Ranjeet/Vikash Jha</t>
-  </si>
-  <si>
     <t>Module</t>
   </si>
   <si>
@@ -1497,6 +1479,233 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selecting the policy number which already Expired
+</t>
+  </si>
+  <si>
+    <t>Dealer should be able to renew the policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.REC Agreement Number-
+REC6613
+2.Enter valid data in all the fields.
+</t>
+  </si>
+  <si>
+    <t>Current odometer Image  and  Car Image accepting wrong file</t>
+  </si>
+  <si>
+    <r>
+      <t>To verify if dealer is able to Renew the policy when</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Current odometer reading </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is expired</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Update Odometer-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Upading the Current odometer raeding of REC6613 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select REC Agreement Number-
+REC6613
+1) Enter </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Current Odometer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">fields  Equal to the  REC end km   2)Enter valid details in the remianing fields.             3)Click On </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Button.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Chassis No-MEERBC006KC022587
+Agreement number-REC6613
+Current odometer -80000
+</t>
+  </si>
+  <si>
+    <t>Updating Successfully</t>
+  </si>
+  <si>
+    <t>Dealer should be able to Update Current odometer raeding from 40000 to 80000.</t>
+  </si>
+  <si>
+    <t>dealer is on Creating New Easy Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selecting the same  Vin number which already Expired
+</t>
+  </si>
+  <si>
+    <r>
+      <t>To verify if data  is coming from middleware when Renew the policy</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> REC Agreement Number
+REC6621</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Chassis No-MEERBC006KC022587
+2.observing the data and match with the middleware</t>
+  </si>
+  <si>
+    <t>Data is not Updated from middleware</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data should get computed from MW </t>
+  </si>
+  <si>
+    <t>Repurchage_TC34</t>
+  </si>
+  <si>
+    <t>Repurchage_TC35</t>
+  </si>
+  <si>
+    <t>dealer is on Creating New Easy Care page</t>
+  </si>
+  <si>
+    <t>BUG_ID2</t>
+  </si>
+  <si>
+    <t>BUG_ID3</t>
+  </si>
+  <si>
+    <t>To verify if the dealer is able to claim against MEEBBA006J9621037</t>
+  </si>
+  <si>
+    <t>Dealer is on Creating New Easy Care Claims</t>
+  </si>
+  <si>
+    <t>1.Click on New Easy Care Claim
+2.Click on Add Easy Care Claim
+3.Select the RECC4792 
+4. Enter all the valid details and save</t>
+  </si>
+  <si>
+    <t>1.Current PMS Visit-30k service
+2.Job Card no.ROERJA21001111
+3.Plan Name
+373/REC-KWID AMT-P373-3Y-30K
+4.Odometer Reading-60000</t>
+  </si>
+  <si>
+    <t>Policy is not getting expired after Avail of services</t>
+  </si>
+  <si>
+    <t>Dealer should be able to claim and  after avail the services the policy should get expired and dealer should renew the policy against same vin number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify if the AMC status is getting expired when A. REC end period  surpass </t>
+  </si>
+  <si>
+    <t>Dealer is logged into the sys and on agreement page</t>
+  </si>
+  <si>
+    <t>when A. REC end period should surpass, policy should expired and dealer should be able to renew the policy again</t>
+  </si>
+  <si>
+    <t>pending from apurwa side</t>
+  </si>
+  <si>
+    <t>Repurchage_TC36</t>
+  </si>
+  <si>
+    <t>BUG_ID4</t>
+  </si>
+  <si>
+    <t>Lead Dev: Apurwa</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1716,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1537,13 +1746,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1635,7 +1837,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1726,52 +1928,19 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1793,121 +1962,150 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1917,15 +2115,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2214,10 +2403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,182 +2422,182 @@
     <col min="10" max="10" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:26" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-    </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="12" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-    </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="12">
         <v>44193</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="12" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="12" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="1"/>
@@ -2426,1040 +2615,1157 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C6" s="7">
+        <v>44193</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C7" s="7">
+        <v>44193</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C8" s="7">
+        <v>44193</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B9" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C9" s="7">
         <v>44193</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="22" t="s">
+      <c r="D9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="F9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B10" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C10" s="7">
         <v>44193</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="D10" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B11" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C11" s="7">
         <v>44193</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="D11" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B12" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C12" s="7">
         <v>44193</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="D12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="F12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B13" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C13" s="7">
         <v>44193</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="D13" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B14" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C14" s="7">
         <v>44193</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="D14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B15" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C15" s="7">
         <v>44193</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="D15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="B16" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C16" s="7">
         <v>44193</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="D16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="B17" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C17" s="7">
         <v>44193</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C18" s="7">
+        <v>44193</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C19" s="7">
+        <v>44193</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C20" s="7">
+        <v>44193</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C21" s="7">
+        <v>44193</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C22" s="7">
+        <v>44193</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C23" s="7">
+        <v>44193</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C24" s="7">
+        <v>44193</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C25" s="7">
+        <v>44193</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C26" s="7">
+        <v>44193</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C27" s="7">
+        <v>44193</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C28" s="7">
+        <v>44193</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C29" s="7">
+        <v>44193</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C30" s="7">
+        <v>44193</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="H30" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C31" s="7">
         <v>44193</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23" t="s">
+      <c r="D31" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C32" s="7">
+        <v>44193</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C33" s="7">
+        <v>44193</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="I33" s="19"/>
+      <c r="J33" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C34" s="7">
         <v>44193</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23" t="s">
+      <c r="D34" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C17" s="8">
+      <c r="I34" s="19"/>
+      <c r="J34" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C35" s="7">
         <v>44193</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="D35" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C36" s="7">
         <v>44193</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="D36" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C37" s="7">
         <v>44193</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="D37" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="I37" s="19"/>
+      <c r="J37" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B38" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C38" s="7">
         <v>44193</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="D38" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="I38" s="19"/>
+      <c r="J38" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B39" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C39" s="7">
         <v>44193</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="D39" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="I39" s="19"/>
+      <c r="J39" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C40" s="7">
         <v>44193</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C23" s="8">
-        <v>44193</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C24" s="8">
-        <v>44193</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C25" s="8">
-        <v>44193</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C26" s="8">
-        <v>44193</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C27" s="8">
-        <v>44193</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C28" s="8">
-        <v>44193</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C29" s="8">
-        <v>44193</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C30" s="8">
-        <v>44193</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C31" s="8">
-        <v>44193</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B32" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C32" s="8">
-        <v>44193</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B33" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C33" s="8">
-        <v>44193</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C34" s="8">
-        <v>44193</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B35" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C35" s="8">
-        <v>44193</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C36" s="8">
-        <v>44193</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-    </row>
-    <row r="37" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B37" s="7">
-        <v>13389</v>
-      </c>
-      <c r="C37" s="8">
-        <v>44193</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
+      <c r="D40" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="19" t="s">
+        <v>270</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3478,8 +3784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3499,182 +3805,182 @@
     <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:26" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-    </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="12" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-    </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="12">
         <v>44193</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="12" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="12" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+      <c r="G4" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="34"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="1"/>
@@ -3691,334 +3997,334 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" s="30" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:26" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="5">
+        <v>13389</v>
+      </c>
+      <c r="C6" s="24">
+        <v>44193</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="6">
-        <v>13389</v>
-      </c>
-      <c r="C6" s="29">
+      <c r="F6" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="5">
+        <v>13389</v>
+      </c>
+      <c r="C7" s="24">
         <v>44193</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="32" t="s">
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="5">
+        <v>13389</v>
+      </c>
+      <c r="C8" s="24">
+        <v>44193</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="30" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="5">
+        <v>13389</v>
+      </c>
+      <c r="C9" s="24">
+        <v>44193</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="25" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="B7" s="6">
-        <v>13389</v>
-      </c>
-      <c r="C7" s="29">
+      <c r="B10" s="5">
+        <v>13389</v>
+      </c>
+      <c r="C10" s="24">
         <v>44193</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="D10" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="25" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="6">
-        <v>13389</v>
-      </c>
-      <c r="C8" s="29">
+      <c r="B11" s="5">
+        <v>13389</v>
+      </c>
+      <c r="C11" s="24">
         <v>44193</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="30" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="D11" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="25" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="6">
-        <v>13389</v>
-      </c>
-      <c r="C9" s="29">
+      <c r="B12" s="5">
+        <v>13389</v>
+      </c>
+      <c r="C12" s="24">
         <v>44193</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D12" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="25" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="5">
+        <v>13389</v>
+      </c>
+      <c r="C13" s="24">
+        <v>44193</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="30" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="6">
-        <v>13389</v>
-      </c>
-      <c r="C10" s="29">
+      <c r="F13" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="25" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="5">
+        <v>13389</v>
+      </c>
+      <c r="C14" s="24">
         <v>44193</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="30" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="6">
-        <v>13389</v>
-      </c>
-      <c r="C11" s="29">
+      <c r="D14" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="25" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="5">
+        <v>13389</v>
+      </c>
+      <c r="C15" s="24">
         <v>44193</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="30" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="B12" s="6">
-        <v>13389</v>
-      </c>
-      <c r="C12" s="29">
-        <v>44193</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="30" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" s="6">
-        <v>13389</v>
-      </c>
-      <c r="C13" s="29">
-        <v>44193</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="D15" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="H15" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="30" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" s="6">
-        <v>13389</v>
-      </c>
-      <c r="C14" s="29">
-        <v>44193</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="30" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15" s="6">
-        <v>13389</v>
-      </c>
-      <c r="C15" s="29">
-        <v>44193</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4038,7 +4344,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4048,93 +4354,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="53">
+        <v>36</v>
+      </c>
+      <c r="C4" s="53">
+        <v>35</v>
+      </c>
+      <c r="D4" s="54">
+        <v>32</v>
+      </c>
+      <c r="E4" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="53">
+        <v>10</v>
+      </c>
+      <c r="C5" s="53">
+        <v>10</v>
+      </c>
+      <c r="D5" s="54">
+        <v>9</v>
+      </c>
+      <c r="E5" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="47">
-        <v>33</v>
-      </c>
-      <c r="C4" s="47">
-        <v>31</v>
-      </c>
-      <c r="D4" s="48">
-        <v>31</v>
-      </c>
-      <c r="E4" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="47">
-        <v>10</v>
-      </c>
-      <c r="C5" s="47">
-        <v>10</v>
-      </c>
-      <c r="D5" s="48">
-        <v>9</v>
-      </c>
-      <c r="E5" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="50">
+      <c r="B6" s="56">
         <f>SUM(B4:B5)</f>
-        <v>43</v>
-      </c>
-      <c r="C6" s="50">
+        <v>46</v>
+      </c>
+      <c r="C6" s="56">
         <f>SUM(C4:C5)</f>
+        <v>45</v>
+      </c>
+      <c r="D6" s="57">
+        <f>SUM(D4:D5)</f>
         <v>41</v>
       </c>
-      <c r="D6" s="51">
-        <f>SUM(D4:D5)</f>
-        <v>40</v>
-      </c>
-      <c r="E6" s="49">
+      <c r="E6" s="55">
         <f>SUM(E4:E5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4148,10 +4454,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4159,6 +4465,7 @@
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="25.140625" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
@@ -4166,146 +4473,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="22"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="22"/>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="22"/>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="C4" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="D4" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="25"/>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="41" t="s">
+      <c r="E4" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="F4" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="H4" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="J4" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="41" t="s">
+      <c r="N4" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="O4" s="25"/>
-    </row>
-    <row r="5" spans="1:15" s="30" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" s="6">
-        <v>13389</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="O4" s="22"/>
+    </row>
+    <row r="5" spans="1:15" s="25" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="45">
+        <v>13389</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="M5" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="45"/>
+    </row>
+    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="B6" s="45">
+        <v>13389</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="M6" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="6"/>
+      <c r="N6" s="46"/>
+    </row>
+    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="45">
+        <v>13389</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="46"/>
+    </row>
+    <row r="8" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="45">
+        <v>13389</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/RECRepurchase Functionality.xlsx
+++ b/RECRepurchase Functionality.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="316">
   <si>
     <t>Created By:-</t>
   </si>
@@ -384,9 +384,6 @@
 2)Hit  on save</t>
   </si>
   <si>
-    <t>Current odometer Reading and REC Start KM reflecting the same reading</t>
-  </si>
-  <si>
     <t>Vin number-MEEBBA006G3347401</t>
   </si>
   <si>
@@ -881,32 +878,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Pending for amendment </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>User should not be able to Repurchage with a vin number having  a AMC status</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Expired </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and &amp; details should flow from already punched old REC Policy. </t>
     </r>
   </si>
   <si>
@@ -1296,9 +1267,6 @@
     </r>
   </si>
   <si>
-    <t>To verify if the User is able to Update Current odometer by entering the Reading less REC end km</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1) Enter </t>
     </r>
@@ -1687,9 +1655,6 @@
     <t>Dealer should be able to claim and  after avail the services the policy should get expired and dealer should renew the policy against same vin number</t>
   </si>
   <si>
-    <t xml:space="preserve">To verify if the AMC status is getting expired when A. REC end period  surpass </t>
-  </si>
-  <si>
     <t>Dealer is logged into the sys and on agreement page</t>
   </si>
   <si>
@@ -1706,6 +1671,188 @@
   </si>
   <si>
     <t>Lead Dev: Apurwa</t>
+  </si>
+  <si>
+    <t>To verify if the User is able to Update Current odometer by entering the Reading less than REC end km</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>To verify if the user is able to expire the policy forcefully by updating the odometer reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chassis No-MEERBC006KC022587
+Agreement number-REC6627
+Current odometer -41000(More than Rec end km)
+</t>
+  </si>
+  <si>
+    <t>Odometer is updated successfully</t>
+  </si>
+  <si>
+    <t>User should be able to expire the policy forcefully by entering the odometer reading more than the REC End KM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To verify if the user is able to renew the policy REC </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agreement number REC6627</t>
+    </r>
+  </si>
+  <si>
+    <t>Selecting the REC6627 which is expired forefully</t>
+  </si>
+  <si>
+    <t>1.Enter Last odometer reading and current odometer
+2.Enter valid details in all the required fields</t>
+  </si>
+  <si>
+    <t>Agreeement is created successfully when last and current ododmeter  is accepting the value which is less than the Expired value</t>
+  </si>
+  <si>
+    <t>User should be able to repurchange the policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify by entering the data in Current Odometer reading and nter valid details in the remianing fields.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter Data in Cureenet ododmeter reading 2)Enter valid details in the remianing fields.             3)Click On Save Button. </t>
+  </si>
+  <si>
+    <t>Current ododmeter Reading-9</t>
+  </si>
+  <si>
+    <t>user is not able to enter number 9</t>
+  </si>
+  <si>
+    <t>Current odometer reading-9</t>
+  </si>
+  <si>
+    <t>Repurchage_TC25</t>
+  </si>
+  <si>
+    <t>Repurchage_TC37</t>
+  </si>
+  <si>
+    <t>BUG_ID5</t>
+  </si>
+  <si>
+    <t>user is not able to enter number 9 in Current odometer reading field</t>
+  </si>
+  <si>
+    <t>Sakshi</t>
+  </si>
+  <si>
+    <t>Retesting Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify if the AMC status is getting expired when  REC end period  surpass </t>
+  </si>
+  <si>
+    <t>Selcting the agrement REC6628
+and check the AMC Status</t>
+  </si>
+  <si>
+    <t>Amc Status is Expired</t>
+  </si>
+  <si>
+    <t>To verify if the dealer is able to repurchase the policy again</t>
+  </si>
+  <si>
+    <t>Vin number-MEERBC006KC022587</t>
+  </si>
+  <si>
+    <t>Dealer should be able to renew the policy and save successfully</t>
+  </si>
+  <si>
+    <t>Vin number-MEEBBA006J9621037</t>
+  </si>
+  <si>
+    <t>Vin number-MEERBC004KC021549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass </t>
+  </si>
+  <si>
+    <t>Power Id</t>
+  </si>
+  <si>
+    <t>Rtesting date</t>
+  </si>
+  <si>
+    <r>
+      <t>User should be able to Repurchage with a vin number having  a AMC status</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expired </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and &amp; details should flow from already punched old REC Policy. </t>
+    </r>
+  </si>
+  <si>
+    <t>1)Click on + Renew Button 
+2)Enter vin number
+3)Click on Validate button
+4).Enter valid data in all the required fields and save the agreement</t>
+  </si>
+  <si>
+    <t>UpdateOdometer_TC11</t>
+  </si>
+  <si>
+    <t>Repurchage_TC38</t>
+  </si>
+  <si>
+    <t>Repurchage_TC39</t>
+  </si>
+  <si>
+    <t>Repurchage_TC40</t>
+  </si>
+  <si>
+    <t>Document is not visible in the document details list</t>
+  </si>
+  <si>
+    <t>Verify the agreement details page</t>
+  </si>
+  <si>
+    <t>Dealer is on agreement deatails page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observing the data </t>
+  </si>
+  <si>
+    <t>BUG_ID6</t>
+  </si>
+  <si>
+    <t>28.12.2021</t>
+  </si>
+  <si>
+    <t>28.12.2022</t>
   </si>
 </sst>
 </file>
@@ -1935,7 +2082,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1958,11 +2105,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2038,15 +2196,69 @@
     <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2056,7 +2268,13 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2066,62 +2284,28 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2403,10 +2587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,27 +2604,29 @@
     <col min="7" max="7" width="24.7109375" customWidth="1"/>
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="65"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -2451,32 +2637,36 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+    </row>
+    <row r="2" spans="1:28" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="9" t="s">
+      <c r="G2" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="65"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -2487,9 +2677,11 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
-    </row>
-    <row r="3" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+    </row>
+    <row r="3" spans="1:28" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="12">
@@ -2498,23 +2690,25 @@
       <c r="C3" s="13"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="63">
+        <v>44203</v>
+      </c>
+      <c r="H3" s="50"/>
+      <c r="I3" s="30" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="65"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -2525,30 +2719,32 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
-    </row>
-    <row r="4" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+    </row>
+    <row r="4" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="65"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -2559,8 +2755,10 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="1:26" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+    </row>
+    <row r="5" spans="1:28" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -2600,9 +2798,15 @@
       <c r="M5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="N5" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>291</v>
+      </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -2613,10 +2817,12 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="6">
         <v>13389</v>
@@ -2644,12 +2850,19 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7">
+        <v>44203</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="6">
         <v>13389</v>
@@ -2675,12 +2888,15 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="66"/>
+    </row>
+    <row r="8" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="6">
         <v>13389</v>
@@ -2703,17 +2919,20 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="66"/>
+    </row>
+    <row r="9" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="6">
         <v>13389</v>
@@ -2741,12 +2960,15 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="66"/>
+    </row>
+    <row r="10" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="6">
         <v>13389</v>
@@ -2755,7 +2977,7 @@
         <v>44193</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>24</v>
@@ -2774,12 +2996,15 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="66"/>
+    </row>
+    <row r="11" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" s="6">
         <v>13389</v>
@@ -2788,33 +3013,36 @@
         <v>44193</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>48</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="66"/>
+    </row>
+    <row r="12" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" s="6">
         <v>13389</v>
@@ -2839,17 +3067,20 @@
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19" t="s">
-        <v>179</v>
+        <v>303</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="66"/>
+    </row>
+    <row r="13" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" s="6">
         <v>13389</v>
@@ -2858,7 +3089,7 @@
         <v>44193</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>24</v>
@@ -2866,21 +3097,24 @@
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="66"/>
+    </row>
+    <row r="14" spans="1:28" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="6">
         <v>13389</v>
@@ -2892,10 +3126,10 @@
         <v>49</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17" t="s">
@@ -2908,12 +3142,15 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="66"/>
+    </row>
+    <row r="15" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="6">
         <v>13389</v>
@@ -2925,7 +3162,7 @@
         <v>52</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>53</v>
@@ -2941,12 +3178,15 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="135" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="66"/>
+    </row>
+    <row r="16" spans="1:28" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="6">
         <v>13389</v>
@@ -2974,12 +3214,15 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="66"/>
+    </row>
+    <row r="17" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B17" s="6">
         <v>13389</v>
@@ -3007,12 +3250,15 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="66"/>
+    </row>
+    <row r="18" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B18" s="6">
         <v>13389</v>
@@ -3040,12 +3286,15 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="66"/>
+    </row>
+    <row r="19" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="6">
         <v>13389</v>
@@ -3073,12 +3322,15 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="66"/>
+    </row>
+    <row r="20" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="6">
         <v>13389</v>
@@ -3106,12 +3358,15 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="66"/>
+    </row>
+    <row r="21" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="6">
         <v>13389</v>
@@ -3139,12 +3394,15 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="66"/>
+    </row>
+    <row r="22" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="6">
         <v>13389</v>
@@ -3172,12 +3430,15 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="66"/>
+    </row>
+    <row r="23" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="6">
         <v>13389</v>
@@ -3205,12 +3466,15 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="66"/>
+    </row>
+    <row r="24" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="6">
         <v>13389</v>
@@ -3238,12 +3502,15 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="66"/>
+    </row>
+    <row r="25" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B25" s="6">
         <v>13389</v>
@@ -3271,12 +3538,15 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="66"/>
+    </row>
+    <row r="26" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" s="6">
         <v>13389</v>
@@ -3304,12 +3574,15 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="66"/>
+    </row>
+    <row r="27" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B27" s="6">
         <v>13389</v>
@@ -3335,12 +3608,15 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="66"/>
+    </row>
+    <row r="28" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" s="6">
         <v>13389</v>
@@ -3358,7 +3634,7 @@
         <v>94</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>84</v>
@@ -3370,12 +3646,15 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="66"/>
+    </row>
+    <row r="29" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B29" s="6">
         <v>13389</v>
@@ -3403,47 +3682,49 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="66"/>
+    </row>
+    <row r="30" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="6">
-        <v>13389</v>
-      </c>
-      <c r="C30" s="7">
-        <v>44193</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>99</v>
+        <v>286</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>107</v>
+        <v>283</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>100</v>
+        <v>284</v>
       </c>
       <c r="I30" s="19"/>
-      <c r="J30" s="19" t="s">
-        <v>108</v>
+      <c r="J30" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="66"/>
+    </row>
+    <row r="31" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B31" s="6">
         <v>13389</v>
@@ -3452,27 +3733,34 @@
         <v>44193</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
+        <v>109</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="66"/>
+    </row>
+    <row r="32" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B32" s="6">
         <v>13389</v>
@@ -3481,29 +3769,30 @@
         <v>44193</v>
       </c>
       <c r="D32" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>113</v>
-      </c>
+      <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="66"/>
+    </row>
+    <row r="33" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B33" s="6">
         <v>13389</v>
@@ -3511,32 +3800,33 @@
       <c r="C33" s="7">
         <v>44193</v>
       </c>
-      <c r="D33" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>118</v>
+      <c r="D33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="G33" s="19"/>
-      <c r="H33" s="19" t="s">
-        <v>54</v>
-      </c>
+      <c r="H33" s="19"/>
       <c r="I33" s="19"/>
-      <c r="J33" s="8" t="s">
-        <v>115</v>
+      <c r="J33" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="66"/>
+    </row>
+    <row r="34" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B34" s="6">
         <v>13389</v>
@@ -3545,11 +3835,13 @@
         <v>44193</v>
       </c>
       <c r="D34" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="G34" s="19"/>
       <c r="H34" s="19" t="s">
@@ -3557,17 +3849,20 @@
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="66"/>
+    </row>
+    <row r="35" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B35" s="6">
         <v>13389</v>
@@ -3576,31 +3871,32 @@
         <v>44193</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>121</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H35" s="19"/>
+        <v>161</v>
+      </c>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="I35" s="19"/>
       <c r="J35" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="66"/>
+    </row>
+    <row r="36" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B36" s="6">
         <v>13389</v>
@@ -3609,33 +3905,34 @@
         <v>44193</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>242</v>
+        <v>119</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>241</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="H36" s="19"/>
       <c r="I36" s="19"/>
-      <c r="J36" s="30" t="s">
-        <v>239</v>
+      <c r="J36" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="66"/>
+    </row>
+    <row r="37" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B37" s="6">
         <v>13389</v>
@@ -3644,33 +3941,36 @@
         <v>44193</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>246</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="H37" s="64"/>
       <c r="I37" s="19"/>
-      <c r="J37" s="8" t="s">
-        <v>247</v>
+      <c r="J37" s="29" t="s">
+        <v>236</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="66" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="B38" s="6">
         <v>13389</v>
@@ -3679,33 +3979,36 @@
         <v>44193</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>248</v>
+        <v>240</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="H38" s="28" t="s">
-        <v>252</v>
+        <v>242</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>243</v>
       </c>
       <c r="I38" s="19"/>
-      <c r="J38" s="30" t="s">
-        <v>255</v>
+      <c r="J38" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="66"/>
+    </row>
+    <row r="39" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B39" s="6">
         <v>13389</v>
@@ -3714,33 +4017,34 @@
         <v>44193</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="H39" s="28" t="s">
-        <v>265</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="H39" s="29"/>
       <c r="I39" s="19"/>
-      <c r="J39" s="30" t="s">
-        <v>266</v>
+      <c r="J39" s="29" t="s">
+        <v>252</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="66"/>
+    </row>
+    <row r="40" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B40" s="6">
         <v>13389</v>
@@ -3749,23 +4053,242 @@
         <v>44193</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
+        <v>258</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>262</v>
+      </c>
       <c r="I40" s="19"/>
-      <c r="J40" s="8" t="s">
-        <v>269</v>
+      <c r="J40" s="29" t="s">
+        <v>263</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="19" t="s">
-        <v>270</v>
-      </c>
+      <c r="M40" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="66"/>
+    </row>
+    <row r="41" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B41" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="66"/>
+    </row>
+    <row r="42" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B42" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C42" s="7">
+        <v>44193</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="66"/>
+    </row>
+    <row r="43" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B43" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C43" s="7">
+        <v>44194</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="I43" s="66"/>
+      <c r="J43" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="N43" s="67"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="66"/>
+    </row>
+    <row r="44" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="67"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="66"/>
+    </row>
+    <row r="45" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B45" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C45" s="7">
+        <v>44195</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="I45" s="66"/>
+      <c r="J45" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="N45" s="67"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="66"/>
+    </row>
+    <row r="46" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B46" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C46" s="7">
+        <v>44196</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="I46" s="66"/>
+      <c r="J46" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="K46" s="66"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="N46" s="67"/>
+      <c r="O46" s="67"/>
+      <c r="P46" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3782,10 +4305,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3806,21 +4329,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -3839,17 +4362,17 @@
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="32"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="9" t="s">
         <v>2</v>
       </c>
@@ -3884,8 +4407,8 @@
       <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="32"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="9" t="s">
         <v>5</v>
       </c>
@@ -3920,10 +4443,10 @@
       <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="34"/>
+      <c r="G4" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="52"/>
       <c r="I4" s="9"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -3999,7 +4522,7 @@
     </row>
     <row r="6" spans="1:26" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B6" s="5">
         <v>13389</v>
@@ -4008,29 +4531,29 @@
         <v>44193</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B7" s="5">
         <v>13389</v>
@@ -4039,7 +4562,7 @@
         <v>44193</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -4047,17 +4570,17 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B8" s="5">
         <v>13389</v>
@@ -4066,27 +4589,27 @@
         <v>44193</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B9" s="5">
         <v>13389</v>
@@ -4095,236 +4618,265 @@
         <v>44193</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="25" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B10" s="5">
         <v>13389</v>
       </c>
       <c r="C10" s="24">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="G10" s="19" t="s">
         <v>196</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>198</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>54</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="25" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B11" s="5">
         <v>13389</v>
       </c>
       <c r="C11" s="24">
-        <v>44193</v>
+        <v>44195</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>201</v>
-      </c>
       <c r="G11" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>54</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="25" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B12" s="5">
         <v>13389</v>
       </c>
       <c r="C12" s="24">
-        <v>44193</v>
+        <v>44196</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>54</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="25" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B13" s="5">
         <v>13389</v>
       </c>
       <c r="C13" s="24">
-        <v>44193</v>
+        <v>44197</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="25" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B14" s="5">
         <v>13389</v>
       </c>
       <c r="C14" s="24">
-        <v>44193</v>
+        <v>44198</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="25" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B15" s="5">
         <v>13389</v>
       </c>
       <c r="C15" s="24">
-        <v>44193</v>
+        <v>44199</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="180" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="5">
+        <v>13389</v>
+      </c>
+      <c r="C16" s="24">
+        <v>44200</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="J16" s="60" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4344,101 +4896,102 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="A1" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="A2" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="50" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="44">
+        <v>40</v>
+      </c>
+      <c r="C4" s="44">
+        <v>40</v>
+      </c>
+      <c r="D4" s="45">
+        <v>37</v>
+      </c>
+      <c r="E4" s="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="44">
+        <v>10</v>
+      </c>
+      <c r="C5" s="44">
+        <v>10</v>
+      </c>
+      <c r="D5" s="45">
+        <v>9</v>
+      </c>
+      <c r="E5" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="53">
-        <v>36</v>
-      </c>
-      <c r="C4" s="53">
-        <v>35</v>
-      </c>
-      <c r="D4" s="54">
-        <v>32</v>
-      </c>
-      <c r="E4" s="55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="53">
-        <v>10</v>
-      </c>
-      <c r="C5" s="53">
-        <v>10</v>
-      </c>
-      <c r="D5" s="54">
-        <v>9</v>
-      </c>
-      <c r="E5" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="B6" s="56">
+      <c r="B6" s="47">
         <f>SUM(B4:B5)</f>
+        <v>50</v>
+      </c>
+      <c r="C6" s="47">
+        <f>SUM(C4:C5)</f>
+        <v>50</v>
+      </c>
+      <c r="D6" s="48">
+        <f>SUM(D4:D5)</f>
         <v>46</v>
       </c>
-      <c r="C6" s="56">
-        <f>SUM(C4:C5)</f>
-        <v>45</v>
-      </c>
-      <c r="D6" s="57">
-        <f>SUM(D4:D5)</f>
-        <v>41</v>
-      </c>
-      <c r="E6" s="55">
+      <c r="E6" s="46">
         <f>SUM(E4:E5)</f>
         <v>4</v>
       </c>
@@ -4454,9 +5007,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="C10" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -4473,254 +5026,313 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="22"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="22"/>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="22"/>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="22"/>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="22"/>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="22"/>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="44" t="s">
+      <c r="C4" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="D4" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="E4" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="F4" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="44" t="s">
+      <c r="H4" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="H4" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="44" t="s">
+      <c r="J4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="J4" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="43" t="s">
+      <c r="N4" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="N4" s="43" t="s">
-        <v>173</v>
-      </c>
       <c r="O4" s="22"/>
     </row>
     <row r="5" spans="1:15" s="25" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="45">
-        <v>13389</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="45" t="s">
+      <c r="A5" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="38">
+        <v>13389</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="D5" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="M5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="M5" s="45" t="s">
+      <c r="B6" s="38">
+        <v>13389</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="M6" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="45"/>
-    </row>
-    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="45">
-        <v>13389</v>
-      </c>
-      <c r="C6" s="45" t="s">
+      <c r="N6" s="39"/>
+    </row>
+    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="38">
+        <v>13389</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="38">
+        <v>13389</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="M6" s="45" t="s">
+      <c r="G8" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="46"/>
-    </row>
-    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="45">
-        <v>13389</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="M7" s="45" t="s">
+      <c r="N8" s="39"/>
+    </row>
+    <row r="9" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="38">
+        <v>13389</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="L9" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="M9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="46"/>
-    </row>
-    <row r="8" spans="1:15" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" s="45">
-        <v>13389</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="M8" s="45" t="s">
+    </row>
+    <row r="10" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" s="38">
+        <v>13389</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="M10" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">
